--- a/0_Fundamentals/Embedded_Qs_and_Data/0_1_Embedded_Qs.xlsx
+++ b/0_Fundamentals/Embedded_Qs_and_Data/0_1_Embedded_Qs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\Notebooks\0_Fundamentals\Embedded_Qs_and_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760C1FEC-70DE-4E1C-806F-32C65208A93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEB09D2-B73B-4553-9055-7D9B6A71AB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11490" yWindow="1590" windowWidth="17295" windowHeight="13215" activeTab="3" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
+    <workbookView xWindow="11490" yWindow="1590" windowWidth="17295" windowHeight="13215" activeTab="4" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
   <si>
     <t>Correct</t>
   </si>
@@ -285,6 +285,30 @@
   </si>
   <si>
     <t>Once both materials were at steady state, the material by definition would no longer be changing its overall thermal energy level: at this point, thermal energy would only be travelling through the material from the hot to the cold side.   In this situation, density and specific heat no longer matter, and the heat transfer rate would be governed by Fourier's law, which depends only on geometry and thermal conductivity 'k'.</t>
+  </si>
+  <si>
+    <t>Have a linear temperature field</t>
+  </si>
+  <si>
+    <t>Have a temperature field whose slope increases as it approaches the hotter side</t>
+  </si>
+  <si>
+    <t>A uniform material with a uniform cross-sectional area is heated on one side.  Fourier's Law tells us at steady-state, the temperature within the material must:</t>
+  </si>
+  <si>
+    <t>Have an overall thermal energy level that is increasing linearly</t>
+  </si>
+  <si>
+    <t>Have a constant temperature field</t>
+  </si>
+  <si>
+    <t>Yep!  At steady state, the overall heat rate must stay the same at any cross-sectional area between the hot and cold side (if this were not true, one of the areas in the material would be heating up or cooling down, and so not at steady state).  Rearranging Fourier's law gives us dT/dx = -q/kA: if everything on the right is constant, then so is dT/dx, which is the slope of the temperature field.</t>
+  </si>
+  <si>
+    <t>Nope!  Steady state is defined as a an energy state that does not change with time, so the energy cannot be increasing.</t>
+  </si>
+  <si>
+    <t>Nope!  One edge of the material is hotter than the other, so this cannot be true.</t>
   </si>
 </sst>
 </file>
@@ -666,7 +690,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B108BD-5895-409A-8E08-9DFC6590E1E9}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1472,8 +1496,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7D717C-976A-40C2-8F20-6D7B2F5C7AAC}">
   <dimension ref="A1:C5"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247BEDE9-0E39-4CD0-BDE7-8CAC98E2D3B7}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,97 +1584,27 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247BEDE9-0E39-4CD0-BDE7-8CAC98E2D3B7}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
   </sheetData>

--- a/0_Fundamentals/Embedded_Qs_and_Data/0_1_Embedded_Qs.xlsx
+++ b/0_Fundamentals/Embedded_Qs_and_Data/0_1_Embedded_Qs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\Notebooks\0_Fundamentals\Embedded_Qs_and_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEB09D2-B73B-4553-9055-7D9B6A71AB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5600A32-39C5-489A-94BD-9573CD596AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11490" yWindow="1590" windowWidth="17295" windowHeight="13215" activeTab="4" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
+    <workbookView xWindow="11490" yWindow="1590" windowWidth="17295" windowHeight="13215" activeTab="6" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="96">
   <si>
     <t>Correct</t>
   </si>
@@ -309,6 +309,36 @@
   </si>
   <si>
     <t>Nope!  One edge of the material is hotter than the other, so this cannot be true.</t>
+  </si>
+  <si>
+    <t>The plot above shows the temperature field of a material with a constant cross-sectional area that is heated on one side.  What is happening to the temperature of the material represented by the box (between 'x=0.6' and 'x=0.8'?</t>
+  </si>
+  <si>
+    <t>It is getting lower with time</t>
+  </si>
+  <si>
+    <t>It is staying the same</t>
+  </si>
+  <si>
+    <t>It is getting higher with time</t>
+  </si>
+  <si>
+    <t>The plot above shows the temperature field of a material with a constant cross-sectional area that is heated on one side.  Is the flux on the left side of the boxed area (at 'x=0.6') into or out of the boxed area?</t>
+  </si>
+  <si>
+    <t>The flux is into the boxed area (that is thermal energy is moving from left to right)</t>
+  </si>
+  <si>
+    <t>There is no flux 'x=0.6'</t>
+  </si>
+  <si>
+    <t>The flux is out of the boxed area (that is thermal energy is moving from right to left)</t>
+  </si>
+  <si>
+    <t>Yep!  This is the meaning of the negative sign in Fourier's law: 'q" = -k dT/dx'.   There is a negative slope here, so the flux is in the positive direction.  Physically speaking, the thermal energy is moving from the hot side (the right) to the cold side (the left).</t>
+  </si>
+  <si>
+    <t>Yep!  'dT/dx' is lower on the left side, so the flux out of the material is lower on the left side than the flux *into* the material on the right side (at 'x=0.8').   The first law tells us that since the flux in is bigger than the flux out, the material must be gaining thermal energy.</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7D717C-976A-40C2-8F20-6D7B2F5C7AAC}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1571,7 +1601,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,25 +1612,41 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1616,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C64CEB-3B62-411B-AD41-4E5DB390DAC5}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,8 +1674,10 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1638,31 +1686,37 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
   </sheetData>

--- a/0_Fundamentals/Embedded_Qs_and_Data/0_1_Embedded_Qs.xlsx
+++ b/0_Fundamentals/Embedded_Qs_and_Data/0_1_Embedded_Qs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\Notebooks\0_Fundamentals\Embedded_Qs_and_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5600A32-39C5-489A-94BD-9573CD596AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275E6AE6-8AAE-4140-805A-F1E1A918B9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11490" yWindow="1590" windowWidth="17295" windowHeight="13215" activeTab="6" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
+    <workbookView xWindow="6705" yWindow="2265" windowWidth="17295" windowHeight="13215" firstSheet="6" activeTab="14" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,10 @@
     <sheet name="8_" sheetId="3" r:id="rId9"/>
     <sheet name="9_" sheetId="11" r:id="rId10"/>
     <sheet name="10_" sheetId="12" r:id="rId11"/>
-    <sheet name="MultC" sheetId="13" r:id="rId12"/>
-    <sheet name="MultAns" sheetId="14" r:id="rId13"/>
-    <sheet name="Quant" sheetId="15" r:id="rId14"/>
-    <sheet name="Matching" sheetId="16" r:id="rId15"/>
+    <sheet name="11_" sheetId="13" r:id="rId12"/>
+    <sheet name="12_" sheetId="14" r:id="rId13"/>
+    <sheet name="13_" sheetId="15" r:id="rId14"/>
+    <sheet name="14_" sheetId="16" r:id="rId15"/>
     <sheet name="True_False" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="117">
   <si>
     <t>Correct</t>
   </si>
@@ -65,132 +65,12 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Terms</t>
-  </si>
-  <si>
-    <t>Correct order of definitions</t>
-  </si>
-  <si>
-    <t>Definitions</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Metric answer</t>
-  </si>
-  <si>
-    <t>Comment on State</t>
-  </si>
-  <si>
-    <t>Library</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Library answer</t>
-  </si>
-  <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>State answer</t>
-  </si>
-  <si>
-    <t>Comment on "Function"</t>
-  </si>
-  <si>
-    <t>Metric</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Red herring 1</t>
-  </si>
-  <si>
-    <t>Function defintion</t>
-  </si>
-  <si>
-    <t>Red herring 2</t>
-  </si>
-  <si>
-    <t>What is 40.1 times 3?</t>
-  </si>
-  <si>
     <t>Leeway</t>
   </si>
   <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Don't forget to include the density</t>
-  </si>
-  <si>
-    <t>You may have a problem with units</t>
-  </si>
-  <si>
-    <t>Did you add correctly, shithead?</t>
-  </si>
-  <si>
-    <t>What is the best kind of bear?</t>
-  </si>
-  <si>
-    <t>Grizzly</t>
-  </si>
-  <si>
-    <t>Obviously it's not the grizzly.</t>
-  </si>
-  <si>
-    <t>Polar</t>
-  </si>
-  <si>
-    <t>You're brilliant!</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>You're stupid.</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Battlestar Galactica.</t>
-  </si>
-  <si>
-    <t>Koala</t>
-  </si>
-  <si>
-    <t>It's not even a bear, dumbshit.</t>
-  </si>
-  <si>
-    <t>What is the color of the car?</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Obviously it's not red.</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>So close. But not really that close.</t>
-  </si>
-  <si>
     <t>Mark each statement True (T) or False (F)</t>
   </si>
   <si>
@@ -311,9 +191,6 @@
     <t>Nope!  One edge of the material is hotter than the other, so this cannot be true.</t>
   </si>
   <si>
-    <t>The plot above shows the temperature field of a material with a constant cross-sectional area that is heated on one side.  What is happening to the temperature of the material represented by the box (between 'x=0.6' and 'x=0.8'?</t>
-  </si>
-  <si>
     <t>It is getting lower with time</t>
   </si>
   <si>
@@ -323,9 +200,6 @@
     <t>It is getting higher with time</t>
   </si>
   <si>
-    <t>The plot above shows the temperature field of a material with a constant cross-sectional area that is heated on one side.  Is the flux on the left side of the boxed area (at 'x=0.6') into or out of the boxed area?</t>
-  </si>
-  <si>
     <t>The flux is into the boxed area (that is thermal energy is moving from left to right)</t>
   </si>
   <si>
@@ -338,7 +212,196 @@
     <t>Yep!  This is the meaning of the negative sign in Fourier's law: 'q" = -k dT/dx'.   There is a negative slope here, so the flux is in the positive direction.  Physically speaking, the thermal energy is moving from the hot side (the right) to the cold side (the left).</t>
   </si>
   <si>
-    <t>Yep!  'dT/dx' is lower on the left side, so the flux out of the material is lower on the left side than the flux *into* the material on the right side (at 'x=0.8').   The first law tells us that since the flux in is bigger than the flux out, the material must be gaining thermal energy.</t>
+    <t>The plot above shows the temperature field of a copper bar with a constant cross-sectional area that is heated on one side.  What is happening to the temperature of the copper represented by the box (between 'x=0.6' and 'x=0.8'?</t>
+  </si>
+  <si>
+    <t>Yep!  'dT/dx' is lower on the left side, so the flux out of the boxed material is lower on the left side than the flux *into* the boxed material on the right side (at 'x=0.8').   The first law tells us that since the flux in is bigger than the flux out, the material must be gaining thermal energy.</t>
+  </si>
+  <si>
+    <t>The plot above shows the temperature field of a copper bar with a constant cross-sectional area that is heated on one side.  Is the flux on the left side of the boxed area (at 'x=0.6') into or out of the boxed area?</t>
+  </si>
+  <si>
+    <t>Start with mathematical principles and determine what it should be</t>
+  </si>
+  <si>
+    <t>Look at other situations with known 'h' values and estimate a value</t>
+  </si>
+  <si>
+    <t>How can we determine the coefficient 'h' for a given physical system? Submit all that are true</t>
+  </si>
+  <si>
+    <t>Set up a computational model similar to the physical situation and estimate a value</t>
+  </si>
+  <si>
+    <t>Apply the convection rate equation to the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nope!  </t>
+  </si>
+  <si>
+    <t>Do an experiment in controlled conditions to estimate a value</t>
+  </si>
+  <si>
+    <t>Yep!  This is the most dependable approach, but is time-consuming.</t>
+  </si>
+  <si>
+    <t>Yep!  This would work too, but the accuracy of the value would depend on the match between the physical system and the computer model</t>
+  </si>
+  <si>
+    <t>Yep!  If you have experience with a particular situation, this would be the easiest way to estimate a value.</t>
+  </si>
+  <si>
+    <t>Nope!  'h' is a modeled value that depends on many factors, and so there is no 'analytical' solution</t>
+  </si>
+  <si>
+    <t>Nope!  Usually we don't know the heat rate/flux in a situation, so this would leave two unknowns and only one equation.</t>
+  </si>
+  <si>
+    <t>h' is a modeled coefficient: it attempts to capture a complex physical situation with a single value.  What factors are 'abstracted out' in 'h'?  In other words, what physical factors determine its value?  Submit all that are true.</t>
+  </si>
+  <si>
+    <t>The velocity of the flow</t>
+  </si>
+  <si>
+    <t>The temperature difference between the fluid and surface</t>
+  </si>
+  <si>
+    <t>The area of the surface</t>
+  </si>
+  <si>
+    <t>The type of fluid</t>
+  </si>
+  <si>
+    <t>The shape of the surface</t>
+  </si>
+  <si>
+    <t>The roughness of the surface</t>
+  </si>
+  <si>
+    <t>Nope!  This is captured in another term in the rate equation</t>
+  </si>
+  <si>
+    <t>Yep!</t>
+  </si>
+  <si>
+    <t>How does convection 'enhance' conduction?</t>
+  </si>
+  <si>
+    <t>It increases the thermal conductivity of the fluid</t>
+  </si>
+  <si>
+    <t>It increases the thermal conductivity of the solid</t>
+  </si>
+  <si>
+    <t>It artificially increases the area of contact</t>
+  </si>
+  <si>
+    <t>It removes fluid next to the solid that is approaching equilibrium with the solid</t>
+  </si>
+  <si>
+    <t>Yep!  If a surface is hot, the flow replaces the hotter fluid that is next to the surface with cold fluid.  This increases dT/dx, which means the heat flux increases.</t>
+  </si>
+  <si>
+    <t>When you go swimming in cold water, you "get used to it" after a while, and it doesn't feel as cold.  Why do you think that is?</t>
+  </si>
+  <si>
+    <t>The effects of convection fade with time</t>
+  </si>
+  <si>
+    <t>Your skin has cooled down, and so the temperature difference between the water and skin is smaller</t>
+  </si>
+  <si>
+    <t>The water has heated up, and so the temperature difference between the water and skin is smaller</t>
+  </si>
+  <si>
+    <t>Once you jump in and are standing still, there is less convection</t>
+  </si>
+  <si>
+    <t>Yep!  What we feel as "hot" or "cold" is actually heat transfer.  So after awhile, the outer layer of our skin gets cooler, and the heat transfer gots smaller</t>
+  </si>
+  <si>
+    <t>Nope!  This might happen a little, if we stood really still, but mostly we're moving too much, and convection replaces that warmed water with cooler water.</t>
+  </si>
+  <si>
+    <t>Which of the three modes of heat transfer can heat a satellite moving through outer space?  Submit all that are true.</t>
+  </si>
+  <si>
+    <t>Conduction</t>
+  </si>
+  <si>
+    <t>Convection</t>
+  </si>
+  <si>
+    <t>Radiation</t>
+  </si>
+  <si>
+    <t>Nope!  Conduction requires a material of transmission (i.e. molecules).  Not much of that in space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nope!  Convection, which depends on conduction, also requires a material of transmission (i.e. molecules). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yep!  Radiation does not need a material to travel through, so the vacuum of space is no biggee.  </t>
+  </si>
+  <si>
+    <t>Radiation depends *heavily* on temperature (to the fourth power).  What can we conclude from this?  Submit all that are true.</t>
+  </si>
+  <si>
+    <t>Radiation usually transfers more heat than other  modes</t>
+  </si>
+  <si>
+    <t>It requires a lot of molecular kinetic energy to produce EM waves that carry a significant energy</t>
+  </si>
+  <si>
+    <t>Radiation becomes more and more important the higher the absolute temperatures are involved in a system</t>
+  </si>
+  <si>
+    <t>Cold materials absorb radiation but do not usually emit radiation</t>
+  </si>
+  <si>
+    <t>Nope!  This is situation-dependent.  At "everyday" temperatures (under 50 degrees C), radiation is generally pretty insignificant.</t>
+  </si>
+  <si>
+    <t>Yep!  Waves are a disturbance moving through space, and the disturbance has to be significant to produce energetic waves.</t>
+  </si>
+  <si>
+    <t>Yep!  Radiation becomes most important when talking about things that are *glowing* hot: if the radiation is in the visible spectrum, then it carries a lot of energy (fire, sun, etc…)</t>
+  </si>
+  <si>
+    <t>Nope!  Cold materials don't radiate much, but anything above 0 Kelvin will radiate some.  The *net* radiation will tend to be negative for cold objects, though (outgoing radiation minus absorption).</t>
+  </si>
+  <si>
+    <t>Why does surface color and roughness matter so much for radiation?</t>
+  </si>
+  <si>
+    <t>Internal molecules do not radiate</t>
+  </si>
+  <si>
+    <t>Radiation from internal molecules tends to get absorbed by other internal molecules in the same material</t>
+  </si>
+  <si>
+    <t>Molecules near the surface tend to have more kinetic energy, and so radiate more</t>
+  </si>
+  <si>
+    <t>Yep! Internal molecules both radiate and absorb, but it tends to balance out and so the net internal radiation is zero.</t>
+  </si>
+  <si>
+    <t>Nope!  All molecules radiate (if above 0 K)</t>
+  </si>
+  <si>
+    <t>Nope!  Kinetic energy is proportional to temperature, and there's no reason to think that the surface of objects tends to be higher than the internal material</t>
+  </si>
+  <si>
+    <t>Don't forget to convert to Kelvin</t>
+  </si>
+  <si>
+    <t>Don't forget to use the fourth power</t>
+  </si>
+  <si>
+    <t>The question is about radiation, not net radiation, so there's no need to subtract</t>
+  </si>
+  <si>
+    <t>A company produces ball bearings.  Coming out of the furnace, a ball bearing has a temperature of 800 degrees C; a cooled one has a temperature of 20 degrees C.  How much more energy is the hot ball bearing radiating than the cooler one?  Express your answer as a ratio to 1 (so if the answer is 10:1, enter 10).</t>
   </si>
 </sst>
 </file>
@@ -392,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -403,6 +466,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,7 +799,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -744,29 +810,29 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -775,7 +841,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -792,7 +858,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,8 +869,10 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -812,33 +880,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -850,7 +928,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,8 +939,10 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -870,33 +950,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -908,7 +1004,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,9 +1015,9 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -930,49 +1026,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -984,7 +1074,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="A1:XFD1048576"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,9 +1085,9 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1006,60 +1096,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1071,7 +1155,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,59 +1167,55 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>120.3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="D2" s="4"/>
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="4" t="s">
-        <v>27</v>
+      <c r="D4" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1146,97 +1226,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC349AE2-79BD-41D4-A5ED-62C59D9BD8CA}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="50.85546875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>179.8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4"/>
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
   </sheetData>
@@ -1262,7 +1328,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1273,46 +1339,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1338,7 +1404,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1349,35 +1415,35 @@
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1408,7 +1474,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1419,7 +1485,7 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1428,7 +1494,7 @@
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1437,13 +1503,13 @@
     </row>
     <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1474,7 +1540,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1485,7 +1551,7 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1494,18 +1560,18 @@
     </row>
     <row r="3" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -1540,7 +1606,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1551,18 +1617,18 @@
     </row>
     <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1571,24 +1637,24 @@
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1601,7 +1667,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,14 +1680,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1630,7 +1696,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1639,13 +1705,13 @@
     </row>
     <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1662,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C64CEB-3B62-411B-AD41-4E5DB390DAC5}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,7 +1742,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1687,7 +1753,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1696,22 +1762,22 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1726,10 +1792,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E647E5-74D7-4085-B7FB-C2D651716B59}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,8 +1806,10 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1749,33 +1817,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1784,10 +1879,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5443ECE8-05FA-4447-AF71-5E40FEC6A164}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="A1:XFD1048576"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,8 +1893,10 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1808,32 +1905,70 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0_Fundamentals/Embedded_Qs_and_Data/0_1_Embedded_Qs.xlsx
+++ b/0_Fundamentals/Embedded_Qs_and_Data/0_1_Embedded_Qs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\Notebooks\0_Fundamentals\Embedded_Qs_and_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275E6AE6-8AAE-4140-805A-F1E1A918B9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E344BBD7-8914-4BF4-9623-84E696592BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6705" yWindow="2265" windowWidth="17295" windowHeight="13215" firstSheet="6" activeTab="14" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
   </bookViews>
@@ -1224,86 +1224,70 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC349AE2-79BD-41D4-A5ED-62C59D9BD8CA}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="48.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>179.8</v>
       </c>
       <c r="B2" s="2">
-        <v>179.8</v>
-      </c>
-      <c r="C2" s="2">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0_Fundamentals/Embedded_Qs_and_Data/0_1_Embedded_Qs.xlsx
+++ b/0_Fundamentals/Embedded_Qs_and_Data/0_1_Embedded_Qs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\Notebooks\0_Fundamentals\Embedded_Qs_and_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E344BBD7-8914-4BF4-9623-84E696592BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7683EEA8-B1EB-4C90-BE49-4883D1809FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="2265" windowWidth="17295" windowHeight="13215" firstSheet="6" activeTab="14" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
+    <workbookView xWindow="1980" yWindow="1740" windowWidth="17295" windowHeight="13215" firstSheet="5" activeTab="14" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="117">
   <si>
     <t>Correct</t>
   </si>
@@ -182,15 +182,6 @@
     <t>Have a constant temperature field</t>
   </si>
   <si>
-    <t>Yep!  At steady state, the overall heat rate must stay the same at any cross-sectional area between the hot and cold side (if this were not true, one of the areas in the material would be heating up or cooling down, and so not at steady state).  Rearranging Fourier's law gives us dT/dx = -q/kA: if everything on the right is constant, then so is dT/dx, which is the slope of the temperature field.</t>
-  </si>
-  <si>
-    <t>Nope!  Steady state is defined as a an energy state that does not change with time, so the energy cannot be increasing.</t>
-  </si>
-  <si>
-    <t>Nope!  One edge of the material is hotter than the other, so this cannot be true.</t>
-  </si>
-  <si>
     <t>It is getting lower with time</t>
   </si>
   <si>
@@ -209,15 +200,9 @@
     <t>The flux is out of the boxed area (that is thermal energy is moving from right to left)</t>
   </si>
   <si>
-    <t>Yep!  This is the meaning of the negative sign in Fourier's law: 'q" = -k dT/dx'.   There is a negative slope here, so the flux is in the positive direction.  Physically speaking, the thermal energy is moving from the hot side (the right) to the cold side (the left).</t>
-  </si>
-  <si>
     <t>The plot above shows the temperature field of a copper bar with a constant cross-sectional area that is heated on one side.  What is happening to the temperature of the copper represented by the box (between 'x=0.6' and 'x=0.8'?</t>
   </si>
   <si>
-    <t>Yep!  'dT/dx' is lower on the left side, so the flux out of the boxed material is lower on the left side than the flux *into* the boxed material on the right side (at 'x=0.8').   The first law tells us that since the flux in is bigger than the flux out, the material must be gaining thermal energy.</t>
-  </si>
-  <si>
     <t>The plot above shows the temperature field of a copper bar with a constant cross-sectional area that is heated on one side.  Is the flux on the left side of the boxed area (at 'x=0.6') into or out of the boxed area?</t>
   </si>
   <si>
@@ -236,30 +221,9 @@
     <t>Apply the convection rate equation to the system</t>
   </si>
   <si>
-    <t xml:space="preserve">Nope!  </t>
-  </si>
-  <si>
     <t>Do an experiment in controlled conditions to estimate a value</t>
   </si>
   <si>
-    <t>Yep!  This is the most dependable approach, but is time-consuming.</t>
-  </si>
-  <si>
-    <t>Yep!  This would work too, but the accuracy of the value would depend on the match between the physical system and the computer model</t>
-  </si>
-  <si>
-    <t>Yep!  If you have experience with a particular situation, this would be the easiest way to estimate a value.</t>
-  </si>
-  <si>
-    <t>Nope!  'h' is a modeled value that depends on many factors, and so there is no 'analytical' solution</t>
-  </si>
-  <si>
-    <t>Nope!  Usually we don't know the heat rate/flux in a situation, so this would leave two unknowns and only one equation.</t>
-  </si>
-  <si>
-    <t>h' is a modeled coefficient: it attempts to capture a complex physical situation with a single value.  What factors are 'abstracted out' in 'h'?  In other words, what physical factors determine its value?  Submit all that are true.</t>
-  </si>
-  <si>
     <t>The velocity of the flow</t>
   </si>
   <si>
@@ -278,12 +242,6 @@
     <t>The roughness of the surface</t>
   </si>
   <si>
-    <t>Nope!  This is captured in another term in the rate equation</t>
-  </si>
-  <si>
-    <t>Yep!</t>
-  </si>
-  <si>
     <t>How does convection 'enhance' conduction?</t>
   </si>
   <si>
@@ -299,9 +257,6 @@
     <t>It removes fluid next to the solid that is approaching equilibrium with the solid</t>
   </si>
   <si>
-    <t>Yep!  If a surface is hot, the flow replaces the hotter fluid that is next to the surface with cold fluid.  This increases dT/dx, which means the heat flux increases.</t>
-  </si>
-  <si>
     <t>When you go swimming in cold water, you "get used to it" after a while, and it doesn't feel as cold.  Why do you think that is?</t>
   </si>
   <si>
@@ -317,12 +272,6 @@
     <t>Once you jump in and are standing still, there is less convection</t>
   </si>
   <si>
-    <t>Yep!  What we feel as "hot" or "cold" is actually heat transfer.  So after awhile, the outer layer of our skin gets cooler, and the heat transfer gots smaller</t>
-  </si>
-  <si>
-    <t>Nope!  This might happen a little, if we stood really still, but mostly we're moving too much, and convection replaces that warmed water with cooler water.</t>
-  </si>
-  <si>
     <t>Which of the three modes of heat transfer can heat a satellite moving through outer space?  Submit all that are true.</t>
   </si>
   <si>
@@ -335,15 +284,6 @@
     <t>Radiation</t>
   </si>
   <si>
-    <t>Nope!  Conduction requires a material of transmission (i.e. molecules).  Not much of that in space.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nope!  Convection, which depends on conduction, also requires a material of transmission (i.e. molecules). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yep!  Radiation does not need a material to travel through, so the vacuum of space is no biggee.  </t>
-  </si>
-  <si>
     <t>Radiation depends *heavily* on temperature (to the fourth power).  What can we conclude from this?  Submit all that are true.</t>
   </si>
   <si>
@@ -359,18 +299,6 @@
     <t>Cold materials absorb radiation but do not usually emit radiation</t>
   </si>
   <si>
-    <t>Nope!  This is situation-dependent.  At "everyday" temperatures (under 50 degrees C), radiation is generally pretty insignificant.</t>
-  </si>
-  <si>
-    <t>Yep!  Waves are a disturbance moving through space, and the disturbance has to be significant to produce energetic waves.</t>
-  </si>
-  <si>
-    <t>Yep!  Radiation becomes most important when talking about things that are *glowing* hot: if the radiation is in the visible spectrum, then it carries a lot of energy (fire, sun, etc…)</t>
-  </si>
-  <si>
-    <t>Nope!  Cold materials don't radiate much, but anything above 0 Kelvin will radiate some.  The *net* radiation will tend to be negative for cold objects, though (outgoing radiation minus absorption).</t>
-  </si>
-  <si>
     <t>Why does surface color and roughness matter so much for radiation?</t>
   </si>
   <si>
@@ -383,15 +311,6 @@
     <t>Molecules near the surface tend to have more kinetic energy, and so radiate more</t>
   </si>
   <si>
-    <t>Yep! Internal molecules both radiate and absorb, but it tends to balance out and so the net internal radiation is zero.</t>
-  </si>
-  <si>
-    <t>Nope!  All molecules radiate (if above 0 K)</t>
-  </si>
-  <si>
-    <t>Nope!  Kinetic energy is proportional to temperature, and there's no reason to think that the surface of objects tends to be higher than the internal material</t>
-  </si>
-  <si>
     <t>Don't forget to convert to Kelvin</t>
   </si>
   <si>
@@ -402,6 +321,87 @@
   </si>
   <si>
     <t>A company produces ball bearings.  Coming out of the furnace, a ball bearing has a temperature of 800 degrees C; a cooled one has a temperature of 20 degrees C.  How much more energy is the hot ball bearing radiating than the cooler one?  Express your answer as a ratio to 1 (so if the answer is 10:1, enter 10).</t>
+  </si>
+  <si>
+    <t>h' is a modeled coefficient: it attempts to capture a complex physical situation with a single value.  What factors are combined to create 'h'?  In other words, what physical factors determine its value?  Submit all that are true.</t>
+  </si>
+  <si>
+    <t>This is captured in another term in the rate equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  If a surface is hot, the flow replaces the hotter fluid that is next to the surface with cold fluid.  This increases dT/dx, which means the heat flux increases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  What we feel as "hot" or "cold" is actually heat transfer.  So after awhile, the outer layer of our skin gets cooler, and the heat transfer gots smaller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Radiation does not need a material to travel through, so the vacuum of space is no biggee.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Waves are a disturbance moving through space, and the disturbance has to be significant to produce energetic waves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Radiation becomes most important when talking about things that are *glowing* hot: if the radiation is in the visible spectrum, then it carries a lot of energy (fire, sun, etc…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Internal molecules both radiate and absorb, but it tends to balance out and so the net internal radiation is zero.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  At steady state, the overall heat rate must stay the same at any cross-sectional area between the hot and cold side (if this were not true, one of the areas in the material would be heating up or cooling down, and so not at steady state).  Rearranging Fourier's law gives us dT/dx = -q/kA: if everything on the right is constant, then so is dT/dx, which is the slope of the temperature field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  This is the meaning of the negative sign in Fourier's law: 'q" = -k dT/dx'.   There is a negative slope here, so the flux is in the positive direction.  Physically speaking, the thermal energy is moving from the hot side (the right) to the cold side (the left).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'dT/dx' is lower on the left side, so the flux out of the boxed material is lower on the left side than the flux *into* the boxed material on the right side (at 'x=0.8').   The first law tells us that since the flux in is bigger than the flux out, the material must be gaining thermal energy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  If you have experience with a particular situation, this would be the easiest way to estimate a value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  This would work too, but the accuracy of the value would depend on the match between the physical system and the computer model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  This is the most dependable approach, but is time-consuming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Steady state is defined as a an energy state that does not change with time, so the energy cannot be increasing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  One edge of the material is hotter than the other, so this cannot be true.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'h' is a modeled value that depends on many factors, and so there is no 'analytical' solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Usually we don't know the heat rate/flux in a situation, so this would leave two unknowns and only one equation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  This is captured in another term in the rate equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  This might happen a little, if we stood really still, but mostly we're moving too much, and convection replaces that warmed water with cooler water.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Conduction requires a material of transmission (i.e. molecules).  Not much of that in space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Convection, which depends on conduction, also requires a material of transmission (i.e. molecules). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  This is situation-dependent.  At "everyday" temperatures (under 50 degrees C), radiation is generally pretty insignificant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cold materials don't radiate much, but anything above 0 Kelvin will radiate some.  The *net* radiation will tend to be negative for cold objects, though (outgoing radiation minus absorption).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  All molecules radiate (if above 0 K)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kinetic energy is proportional to temperature, and there's no reason to think that the surface of objects tends to be higher than the internal material</t>
   </si>
 </sst>
 </file>
@@ -871,7 +871,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -909,13 +909,13 @@
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -941,7 +941,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -952,46 +952,46 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1017,7 +1017,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1028,35 +1028,35 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1087,7 +1087,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1098,46 +1098,46 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1169,7 +1169,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1177,38 +1177,38 @@
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1227,7 +1227,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1240,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
@@ -1262,21 +1262,21 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="4" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1607,7 +1607,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1627,7 +1627,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1638,7 +1638,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1664,14 +1664,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1689,13 +1689,13 @@
     </row>
     <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1726,7 +1726,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1755,13 +1755,13 @@
     </row>
     <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1792,7 +1792,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1803,57 +1803,57 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1866,7 +1866,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1879,7 +1879,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1890,69 +1890,61 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="C7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
